--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.767199999999995</v>
+        <v>-7.421699999999998</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.480599999999998</v>
+        <v>5.4102</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.7694</v>
+        <v>-21.75380000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.314299999999998</v>
+        <v>5.335699999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.200300000000004</v>
+        <v>6.3125</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.777499999999996</v>
+        <v>-8.66</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.11240000000001</v>
+        <v>-22.10920000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.04359999999999</v>
+        <v>-19.02829999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.179500000000007</v>
+        <v>4.078200000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.88739999999998</v>
+        <v>-21.75019999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>5.669200000000004</v>
+        <v>5.033100000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.136900000000001</v>
+        <v>5.124200000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.936199999999999</v>
+        <v>-7.744499999999999</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-18.97189999999999</v>
+        <v>-20.2456</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.458</v>
+        <v>-7.6343</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.599000000000004</v>
+        <v>8.929599999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.5385</v>
+        <v>4.739100000000002</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.989700000000004</v>
+        <v>-8.567900000000002</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.221300000000001</v>
+        <v>-8.225799999999998</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.3696</v>
+        <v>-7.714700000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.556000000000003</v>
+        <v>-7.502800000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.0287</v>
+        <v>5.6953</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.604399999999996</v>
+        <v>-7.509699999999992</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.3089</v>
+        <v>5.108300000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.103999999999997</v>
+        <v>5.143799999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.538500000000003</v>
+        <v>-8.262800000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.9892</v>
+        <v>-8.029799999999996</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66249999999999</v>
+        <v>-21.70069999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.403799999999998</v>
+        <v>5.371499999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>7.120000000000002</v>
+        <v>6.977300000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.316700000000002</v>
+        <v>-7.199800000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.46659999999998</v>
+        <v>-19.28859999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.90509999999998</v>
+        <v>-19.93189999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.591700000000002</v>
+        <v>5.579200000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.88100000000001</v>
+        <v>-21.8768</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.6662</v>
+        <v>-21.9241</v>
       </c>
       <c r="B83" t="n">
-        <v>6.125800000000001</v>
+        <v>6.347700000000008</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-8.117099999999997</v>
+        <v>-8.246099999999998</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.61879999999998</v>
+        <v>-20.53719999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.704599999999997</v>
+        <v>-7.451299999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.386700000000012</v>
+        <v>8.735000000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
